--- a/Code/Results/Cases/Case_3_65/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_65/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.997904885524991</v>
+        <v>1.030592923649507</v>
       </c>
       <c r="D2">
-        <v>1.016173557318941</v>
+        <v>1.034187308579446</v>
       </c>
       <c r="E2">
-        <v>1.013067816703048</v>
+        <v>1.04042822946007</v>
       </c>
       <c r="F2">
-        <v>1.020665991741007</v>
+        <v>1.051818633936164</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042193193215587</v>
+        <v>1.033150075563958</v>
       </c>
       <c r="J2">
-        <v>1.020148442196095</v>
+        <v>1.035733313412631</v>
       </c>
       <c r="K2">
-        <v>1.027412075048619</v>
+        <v>1.036987503238264</v>
       </c>
       <c r="L2">
-        <v>1.024348049289117</v>
+        <v>1.04321060599651</v>
       </c>
       <c r="M2">
-        <v>1.031844732794325</v>
+        <v>1.054569081445856</v>
       </c>
       <c r="N2">
-        <v>1.021597169996674</v>
+        <v>1.037204173517949</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002525086714396</v>
+        <v>1.031572355098161</v>
       </c>
       <c r="D3">
-        <v>1.019501670178858</v>
+        <v>1.034906830788792</v>
       </c>
       <c r="E3">
-        <v>1.017034284607982</v>
+        <v>1.041324154351524</v>
       </c>
       <c r="F3">
-        <v>1.02523607245699</v>
+        <v>1.052858884426698</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043255062375861</v>
+        <v>1.033312061061129</v>
       </c>
       <c r="J3">
-        <v>1.022947151214548</v>
+        <v>1.036354111283547</v>
       </c>
       <c r="K3">
-        <v>1.029890959034151</v>
+        <v>1.037516400136943</v>
       </c>
       <c r="L3">
-        <v>1.027453750987961</v>
+        <v>1.043916727251089</v>
       </c>
       <c r="M3">
-        <v>1.03555592272929</v>
+        <v>1.055421469447415</v>
       </c>
       <c r="N3">
-        <v>1.024399853502951</v>
+        <v>1.037825852993048</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005453391170753</v>
+        <v>1.032206530588527</v>
       </c>
       <c r="D4">
-        <v>1.021612863707714</v>
+        <v>1.035372523355762</v>
       </c>
       <c r="E4">
-        <v>1.019554213507599</v>
+        <v>1.041904629852408</v>
       </c>
       <c r="F4">
-        <v>1.02813913047545</v>
+        <v>1.053532907492634</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043917509117113</v>
+        <v>1.033415605183089</v>
       </c>
       <c r="J4">
-        <v>1.024718619926905</v>
+        <v>1.036755635272152</v>
       </c>
       <c r="K4">
-        <v>1.031457254899523</v>
+        <v>1.037858075914158</v>
       </c>
       <c r="L4">
-        <v>1.029422228527055</v>
+        <v>1.044373753486854</v>
       </c>
       <c r="M4">
-        <v>1.037909400718058</v>
+        <v>1.055973327151597</v>
       </c>
       <c r="N4">
-        <v>1.02617383790407</v>
+        <v>1.038227947191772</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006670313486662</v>
+        <v>1.032473237321001</v>
       </c>
       <c r="D5">
-        <v>1.022490592021942</v>
+        <v>1.035568326462688</v>
       </c>
       <c r="E5">
-        <v>1.020602815341862</v>
+        <v>1.042148840755045</v>
       </c>
       <c r="F5">
-        <v>1.029347091483831</v>
+        <v>1.053816483982813</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044190224383745</v>
+        <v>1.033458830298964</v>
       </c>
       <c r="J5">
-        <v>1.025454189593787</v>
+        <v>1.036924393567986</v>
       </c>
       <c r="K5">
-        <v>1.032106955758916</v>
+        <v>1.038001582442069</v>
       </c>
       <c r="L5">
-        <v>1.030240252258054</v>
+        <v>1.044565914840021</v>
       </c>
       <c r="M5">
-        <v>1.038887715052464</v>
+        <v>1.056205400373691</v>
       </c>
       <c r="N5">
-        <v>1.02691045216425</v>
+        <v>1.038396945143743</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006873826082328</v>
+        <v>1.032518024361654</v>
       </c>
       <c r="D6">
-        <v>1.022637399602748</v>
+        <v>1.035601204151658</v>
       </c>
       <c r="E6">
-        <v>1.020778259257179</v>
+        <v>1.042189855305786</v>
       </c>
       <c r="F6">
-        <v>1.02954919443905</v>
+        <v>1.053864110430432</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044235679198537</v>
+        <v>1.033466070096783</v>
       </c>
       <c r="J6">
-        <v>1.025577166425563</v>
+        <v>1.036952726319668</v>
       </c>
       <c r="K6">
-        <v>1.03221553636455</v>
+        <v>1.038025669937721</v>
       </c>
       <c r="L6">
-        <v>1.030377052541154</v>
+        <v>1.044598181165759</v>
       </c>
       <c r="M6">
-        <v>1.039051338896681</v>
+        <v>1.056244370698122</v>
       </c>
       <c r="N6">
-        <v>1.027033603637232</v>
+        <v>1.038425318131182</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005469706609065</v>
+        <v>1.032210093947377</v>
       </c>
       <c r="D7">
-        <v>1.021624630127465</v>
+        <v>1.035375139586048</v>
       </c>
       <c r="E7">
-        <v>1.019568266817314</v>
+        <v>1.04190789230843</v>
       </c>
       <c r="F7">
-        <v>1.028155319766273</v>
+        <v>1.053536695803411</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043921175691817</v>
+        <v>1.03341618395758</v>
       </c>
       <c r="J7">
-        <v>1.024728484238385</v>
+        <v>1.036757890396314</v>
       </c>
       <c r="K7">
-        <v>1.03146597036195</v>
+        <v>1.03785999398293</v>
       </c>
       <c r="L7">
-        <v>1.029433196011483</v>
+        <v>1.04437632104919</v>
       </c>
       <c r="M7">
-        <v>1.037922516076987</v>
+        <v>1.055976427842651</v>
       </c>
       <c r="N7">
-        <v>1.026183716224003</v>
+        <v>1.038230205518469</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9994793207903717</v>
+        <v>1.030923840165796</v>
       </c>
       <c r="D8">
-        <v>1.017307264614341</v>
+        <v>1.034430450214997</v>
       </c>
       <c r="E8">
-        <v>1.014418201203257</v>
+        <v>1.040730855080967</v>
       </c>
       <c r="F8">
-        <v>1.022221958655126</v>
+        <v>1.052170002134025</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042557238790087</v>
+        <v>1.033205082271905</v>
       </c>
       <c r="J8">
-        <v>1.021102637632731</v>
+        <v>1.035943150457198</v>
       </c>
       <c r="K8">
-        <v>1.028257792311178</v>
+        <v>1.037166360985875</v>
       </c>
       <c r="L8">
-        <v>1.025406347359671</v>
+        <v>1.04344921791211</v>
       </c>
       <c r="M8">
-        <v>1.033109102949718</v>
+        <v>1.054857086108311</v>
       </c>
       <c r="N8">
-        <v>1.022552720500279</v>
+        <v>1.037414308555188</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9884288315436248</v>
+        <v>1.028660526737434</v>
       </c>
       <c r="D9">
-        <v>1.009360508536101</v>
+        <v>1.032766711428142</v>
       </c>
       <c r="E9">
-        <v>1.00496739571256</v>
+        <v>1.038662573265564</v>
       </c>
       <c r="F9">
-        <v>1.01133027075548</v>
+        <v>1.04976873821572</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039959037095981</v>
+        <v>1.032823378242676</v>
       </c>
       <c r="J9">
-        <v>1.014396920306606</v>
+        <v>1.034506178877643</v>
       </c>
       <c r="K9">
-        <v>1.022303521847068</v>
+        <v>1.035939872809836</v>
       </c>
       <c r="L9">
-        <v>1.017980391231431</v>
+        <v>1.041816489780597</v>
       </c>
       <c r="M9">
-        <v>1.024242158486253</v>
+        <v>1.052887045230777</v>
       </c>
       <c r="N9">
-        <v>1.015837480286394</v>
+        <v>1.035975296311166</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9806913899812705</v>
+        <v>1.027153861304967</v>
       </c>
       <c r="D10">
-        <v>1.003812584808568</v>
+        <v>1.031658246728944</v>
       </c>
       <c r="E10">
-        <v>0.998386699845198</v>
+        <v>1.037287686446848</v>
       </c>
       <c r="F10">
-        <v>1.003742914613545</v>
+        <v>1.048172677199668</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038087060897999</v>
+        <v>1.03256240433022</v>
       </c>
       <c r="J10">
-        <v>1.009692598914397</v>
+        <v>1.033547372811148</v>
       </c>
       <c r="K10">
-        <v>1.018113341379854</v>
+        <v>1.035119429938369</v>
       </c>
       <c r="L10">
-        <v>1.012785144147606</v>
+        <v>1.040728690569381</v>
       </c>
       <c r="M10">
-        <v>1.018044916835956</v>
+        <v>1.051575340653215</v>
       </c>
       <c r="N10">
-        <v>1.011126478218215</v>
+        <v>1.035015128630081</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9772439200784825</v>
+        <v>1.026501990295795</v>
       </c>
       <c r="D11">
-        <v>1.001345595198259</v>
+        <v>1.031178449093043</v>
       </c>
       <c r="E11">
-        <v>0.9954640715544811</v>
+        <v>1.036693299210094</v>
       </c>
       <c r="F11">
-        <v>1.000372172348615</v>
+        <v>1.047482711136482</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037241145401965</v>
+        <v>1.032447862677774</v>
       </c>
       <c r="J11">
-        <v>1.00759500741043</v>
+        <v>1.033132012917752</v>
       </c>
       <c r="K11">
-        <v>1.016242180100813</v>
+        <v>1.034763519457806</v>
       </c>
       <c r="L11">
-        <v>1.010472038818184</v>
+        <v>1.040257834491298</v>
       </c>
       <c r="M11">
-        <v>1.015287073455605</v>
+        <v>1.051007761911146</v>
       </c>
       <c r="N11">
-        <v>1.009025907893715</v>
+        <v>1.034599178877993</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9759479365188224</v>
+        <v>1.026259935797699</v>
       </c>
       <c r="D12">
-        <v>1.00041903154494</v>
+        <v>1.031000258346884</v>
       </c>
       <c r="E12">
-        <v>0.9943668749789624</v>
+        <v>1.036472660720264</v>
       </c>
       <c r="F12">
-        <v>0.9991065706866513</v>
+        <v>1.047226599025984</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036921426158727</v>
+        <v>1.032405086135189</v>
       </c>
       <c r="J12">
-        <v>1.006806295047568</v>
+        <v>1.032977701845578</v>
       </c>
       <c r="K12">
-        <v>1.015538207972629</v>
+        <v>1.034631221126697</v>
       </c>
       <c r="L12">
-        <v>1.009602798416811</v>
+        <v>1.040082963623398</v>
       </c>
       <c r="M12">
-        <v>1.014250907432148</v>
+        <v>1.050796998526994</v>
       </c>
       <c r="N12">
-        <v>1.008236075468832</v>
+        <v>1.034444648666398</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9762266424195937</v>
+        <v>1.026311853706698</v>
       </c>
       <c r="D13">
-        <v>1.000618253089578</v>
+        <v>1.031038479605268</v>
       </c>
       <c r="E13">
-        <v>0.9946027627201879</v>
+        <v>1.036519981920401</v>
       </c>
       <c r="F13">
-        <v>0.999378672395297</v>
+        <v>1.04728152814494</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036990259656753</v>
+        <v>1.032414272280329</v>
       </c>
       <c r="J13">
-        <v>1.006975917675316</v>
+        <v>1.033010803346088</v>
       </c>
       <c r="K13">
-        <v>1.015689623788934</v>
+        <v>1.034659603959118</v>
       </c>
       <c r="L13">
-        <v>1.009789716734697</v>
+        <v>1.040120472827066</v>
       </c>
       <c r="M13">
-        <v>1.014473711791316</v>
+        <v>1.050842205231139</v>
       </c>
       <c r="N13">
-        <v>1.008405938980167</v>
+        <v>1.034477797174835</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9771371137790963</v>
+        <v>1.026481980372236</v>
       </c>
       <c r="D14">
-        <v>1.00126921649026</v>
+        <v>1.03116371922339</v>
       </c>
       <c r="E14">
-        <v>0.9953736173253888</v>
+        <v>1.036675058232725</v>
       </c>
       <c r="F14">
-        <v>1.000267838316217</v>
+        <v>1.047461537315438</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037214830886738</v>
+        <v>1.032444331458596</v>
       </c>
       <c r="J14">
-        <v>1.0075300103372</v>
+        <v>1.033119258081697</v>
       </c>
       <c r="K14">
-        <v>1.016184174371096</v>
+        <v>1.034752585617281</v>
       </c>
       <c r="L14">
-        <v>1.010400395204526</v>
+        <v>1.040243379074989</v>
       </c>
       <c r="M14">
-        <v>1.015201667598447</v>
+        <v>1.050990338902333</v>
       </c>
       <c r="N14">
-        <v>1.008960818517187</v>
+        <v>1.034586405928608</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9776960128186667</v>
+        <v>1.026586811565657</v>
       </c>
       <c r="D15">
-        <v>1.001668927759777</v>
+        <v>1.03124088715947</v>
       </c>
       <c r="E15">
-        <v>0.995847009799847</v>
+        <v>1.036770624897913</v>
       </c>
       <c r="F15">
-        <v>1.000813863448788</v>
+        <v>1.047572469725925</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037352460486537</v>
+        <v>1.032462821356839</v>
       </c>
       <c r="J15">
-        <v>1.007870121888026</v>
+        <v>1.033186076946247</v>
       </c>
       <c r="K15">
-        <v>1.016487686036794</v>
+        <v>1.03480986181279</v>
       </c>
       <c r="L15">
-        <v>1.010775306902318</v>
+        <v>1.040319109145259</v>
       </c>
       <c r="M15">
-        <v>1.015648605452358</v>
+        <v>1.051081617005636</v>
       </c>
       <c r="N15">
-        <v>1.009301413065426</v>
+        <v>1.03465331968361</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9809180700856006</v>
+        <v>1.027197134944961</v>
       </c>
       <c r="D16">
-        <v>1.003974906267924</v>
+        <v>1.031690093103679</v>
       </c>
       <c r="E16">
-        <v>0.9985790726279713</v>
+        <v>1.037327154024697</v>
       </c>
       <c r="F16">
-        <v>1.003964759735049</v>
+        <v>1.048218492046836</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038142440295727</v>
+        <v>1.032569973710321</v>
       </c>
       <c r="J16">
-        <v>1.009830493194343</v>
+        <v>1.033574934925659</v>
       </c>
       <c r="K16">
-        <v>1.018236293601625</v>
+        <v>1.035143036850413</v>
       </c>
       <c r="L16">
-        <v>1.0129372764992</v>
+        <v>1.040759943346044</v>
       </c>
       <c r="M16">
-        <v>1.018226327858518</v>
+        <v>1.051613017441807</v>
       </c>
       <c r="N16">
-        <v>1.011264568323856</v>
+        <v>1.035042729885956</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9829126020471705</v>
+        <v>1.027580115626789</v>
       </c>
       <c r="D17">
-        <v>1.005403725527901</v>
+        <v>1.031971915784173</v>
       </c>
       <c r="E17">
-        <v>1.000272821129422</v>
+        <v>1.037676504504907</v>
       </c>
       <c r="F17">
-        <v>1.005917877385431</v>
+        <v>1.048624030328982</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038628376466687</v>
+        <v>1.0326367760258</v>
       </c>
       <c r="J17">
-        <v>1.011043638965455</v>
+        <v>1.033818804752453</v>
       </c>
       <c r="K17">
-        <v>1.019317666632898</v>
+        <v>1.035351854419926</v>
       </c>
       <c r="L17">
-        <v>1.014276068493503</v>
+        <v>1.041036512564854</v>
       </c>
       <c r="M17">
-        <v>1.019822934348104</v>
+        <v>1.05194645804137</v>
       </c>
       <c r="N17">
-        <v>1.012479436901113</v>
+        <v>1.035286946035876</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9840666700580639</v>
+        <v>1.027803552404108</v>
       </c>
       <c r="D18">
-        <v>1.006230923883022</v>
+        <v>1.032136314981071</v>
       </c>
       <c r="E18">
-        <v>1.001253742306047</v>
+        <v>1.037880366114427</v>
       </c>
       <c r="F18">
-        <v>1.007048913307913</v>
+        <v>1.048860683773477</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038908419471357</v>
+        <v>1.032675592240904</v>
       </c>
       <c r="J18">
-        <v>1.011745433890822</v>
+        <v>1.033961031464316</v>
       </c>
       <c r="K18">
-        <v>1.019942963301893</v>
+        <v>1.035473591086034</v>
       </c>
       <c r="L18">
-        <v>1.015050869560785</v>
+        <v>1.04119784688346</v>
       </c>
       <c r="M18">
-        <v>1.020747072584329</v>
+        <v>1.052140986646228</v>
       </c>
       <c r="N18">
-        <v>1.013182228455771</v>
+        <v>1.035429374725984</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9844586233242836</v>
+        <v>1.027879747141774</v>
       </c>
       <c r="D19">
-        <v>1.006511938624975</v>
+        <v>1.032192373671544</v>
       </c>
       <c r="E19">
-        <v>1.001587039368178</v>
+        <v>1.037949893125257</v>
       </c>
       <c r="F19">
-        <v>1.007433200494491</v>
+        <v>1.048941395083362</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039003336818032</v>
+        <v>1.032688802375246</v>
       </c>
       <c r="J19">
-        <v>1.011983755675659</v>
+        <v>1.034009523949525</v>
       </c>
       <c r="K19">
-        <v>1.020155260831356</v>
+        <v>1.035515089417254</v>
       </c>
       <c r="L19">
-        <v>1.015314037887433</v>
+        <v>1.041252860436264</v>
       </c>
       <c r="M19">
-        <v>1.021060987189109</v>
+        <v>1.052207322351865</v>
       </c>
       <c r="N19">
-        <v>1.013420888684877</v>
+        <v>1.035477936076083</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9826995764392601</v>
+        <v>1.027539020183807</v>
       </c>
       <c r="D20">
-        <v>1.005251072295274</v>
+        <v>1.031941677131893</v>
       </c>
       <c r="E20">
-        <v>1.000091827697636</v>
+        <v>1.037639013045004</v>
       </c>
       <c r="F20">
-        <v>1.005709178042987</v>
+        <v>1.04858050854294</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038576592707537</v>
+        <v>1.032629624120849</v>
       </c>
       <c r="J20">
-        <v>1.010914084412019</v>
+        <v>1.03379264172934</v>
       </c>
       <c r="K20">
-        <v>1.019202212110079</v>
+        <v>1.035329456790615</v>
       </c>
       <c r="L20">
-        <v>1.014133062618273</v>
+        <v>1.041006837626633</v>
       </c>
       <c r="M20">
-        <v>1.019652375843813</v>
+        <v>1.051910679048439</v>
       </c>
       <c r="N20">
-        <v>1.01234969836535</v>
+        <v>1.035260745858269</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9768694360151462</v>
+        <v>1.026431880112855</v>
       </c>
       <c r="D21">
-        <v>1.001077810079568</v>
+        <v>1.031126838509876</v>
       </c>
       <c r="E21">
-        <v>0.9951469452798877</v>
+        <v>1.036629388157523</v>
       </c>
       <c r="F21">
-        <v>1.000006381522252</v>
+        <v>1.047408524345873</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0371488539943</v>
+        <v>1.032435486144058</v>
       </c>
       <c r="J21">
-        <v>1.007367112083003</v>
+        <v>1.033087321630053</v>
       </c>
       <c r="K21">
-        <v>1.016038791749234</v>
+        <v>1.034725207516705</v>
       </c>
       <c r="L21">
-        <v>1.010220847288507</v>
+        <v>1.040207185523105</v>
       </c>
       <c r="M21">
-        <v>1.014987633004964</v>
+        <v>1.050946715547816</v>
       </c>
       <c r="N21">
-        <v>1.008797688928783</v>
+        <v>1.034554424123539</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9731139977399165</v>
+        <v>1.025736236971603</v>
       </c>
       <c r="D22">
-        <v>0.9983945503760764</v>
+        <v>1.030614676580337</v>
       </c>
       <c r="E22">
-        <v>0.9919704382403159</v>
+        <v>1.03599542705148</v>
       </c>
       <c r="F22">
-        <v>0.9963419637525137</v>
+        <v>1.046672646988206</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036219197701386</v>
+        <v>1.032312089503407</v>
       </c>
       <c r="J22">
-        <v>1.005081342352282</v>
+        <v>1.032643697742371</v>
       </c>
       <c r="K22">
-        <v>1.013997878768297</v>
+        <v>1.034344729290487</v>
       </c>
       <c r="L22">
-        <v>1.007702658362544</v>
+        <v>1.039704563579819</v>
       </c>
       <c r="M22">
-        <v>1.011986237037174</v>
+        <v>1.050340984650847</v>
       </c>
       <c r="N22">
-        <v>1.006508673142864</v>
+        <v>1.034110170239053</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9751136391229602</v>
+        <v>1.026104966802823</v>
       </c>
       <c r="D23">
-        <v>0.9998227979525012</v>
+        <v>1.030886167800603</v>
       </c>
       <c r="E23">
-        <v>0.9936609757311951</v>
+        <v>1.036331422809315</v>
       </c>
       <c r="F23">
-        <v>0.9982922727686897</v>
+        <v>1.047062654823466</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036715127876502</v>
+        <v>1.032377630738728</v>
       </c>
       <c r="J23">
-        <v>1.006298513004233</v>
+        <v>1.032878886195466</v>
       </c>
       <c r="K23">
-        <v>1.015084873157858</v>
+        <v>1.034546481063113</v>
       </c>
       <c r="L23">
-        <v>1.009043314244469</v>
+        <v>1.039970998400937</v>
       </c>
       <c r="M23">
-        <v>1.01358403829138</v>
+        <v>1.050662060488497</v>
       </c>
       <c r="N23">
-        <v>1.007727572316752</v>
+        <v>1.034345692686727</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.982795862246488</v>
+        <v>1.02755758928911</v>
       </c>
       <c r="D24">
-        <v>1.005320068868302</v>
+        <v>1.031955340625459</v>
       </c>
       <c r="E24">
-        <v>1.000173632468515</v>
+        <v>1.037655953539635</v>
       </c>
       <c r="F24">
-        <v>1.005803505531966</v>
+        <v>1.048600173825371</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03860000203732</v>
+        <v>1.032632856217546</v>
       </c>
       <c r="J24">
-        <v>1.010972642466123</v>
+        <v>1.033804463730296</v>
       </c>
       <c r="K24">
-        <v>1.019254397851459</v>
+        <v>1.035339577510195</v>
       </c>
       <c r="L24">
-        <v>1.014197699612108</v>
+        <v>1.041020246403943</v>
       </c>
       <c r="M24">
-        <v>1.019729465896706</v>
+        <v>1.051926845916813</v>
       </c>
       <c r="N24">
-        <v>1.012408339578607</v>
+        <v>1.035272584647823</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9913480103277238</v>
+        <v>1.029245260782329</v>
       </c>
       <c r="D25">
-        <v>1.011457303754088</v>
+        <v>1.033196710704159</v>
       </c>
       <c r="E25">
-        <v>1.007457908301865</v>
+        <v>1.039196578943375</v>
       </c>
       <c r="F25">
-        <v>1.014200995033341</v>
+        <v>1.050388683996512</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040654694496349</v>
+        <v>1.032923206400249</v>
       </c>
       <c r="J25">
-        <v>1.016170098386574</v>
+        <v>1.03487781927209</v>
       </c>
       <c r="K25">
-        <v>1.023880325821815</v>
+        <v>1.036257443924391</v>
       </c>
       <c r="L25">
-        <v>1.01994154261135</v>
+        <v>1.042238471865717</v>
       </c>
       <c r="M25">
-        <v>1.026582787300389</v>
+        <v>1.053396060121534</v>
       </c>
       <c r="N25">
-        <v>1.017613176482622</v>
+        <v>1.036347464477602</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_65/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_65/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030592923649507</v>
+        <v>0.9979048855249908</v>
       </c>
       <c r="D2">
-        <v>1.034187308579446</v>
+        <v>1.016173557318941</v>
       </c>
       <c r="E2">
-        <v>1.04042822946007</v>
+        <v>1.013067816703048</v>
       </c>
       <c r="F2">
-        <v>1.051818633936164</v>
+        <v>1.020665991741007</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033150075563958</v>
+        <v>1.042193193215587</v>
       </c>
       <c r="J2">
-        <v>1.035733313412631</v>
+        <v>1.020148442196095</v>
       </c>
       <c r="K2">
-        <v>1.036987503238264</v>
+        <v>1.027412075048619</v>
       </c>
       <c r="L2">
-        <v>1.04321060599651</v>
+        <v>1.024348049289116</v>
       </c>
       <c r="M2">
-        <v>1.054569081445856</v>
+        <v>1.031844732794325</v>
       </c>
       <c r="N2">
-        <v>1.037204173517949</v>
+        <v>1.021597169996673</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031572355098161</v>
+        <v>1.002525086714397</v>
       </c>
       <c r="D3">
-        <v>1.034906830788792</v>
+        <v>1.019501670178859</v>
       </c>
       <c r="E3">
-        <v>1.041324154351524</v>
+        <v>1.017034284607983</v>
       </c>
       <c r="F3">
-        <v>1.052858884426698</v>
+        <v>1.025236072456991</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033312061061129</v>
+        <v>1.043255062375862</v>
       </c>
       <c r="J3">
-        <v>1.036354111283547</v>
+        <v>1.022947151214549</v>
       </c>
       <c r="K3">
-        <v>1.037516400136943</v>
+        <v>1.029890959034153</v>
       </c>
       <c r="L3">
-        <v>1.043916727251089</v>
+        <v>1.027453750987962</v>
       </c>
       <c r="M3">
-        <v>1.055421469447415</v>
+        <v>1.035555922729291</v>
       </c>
       <c r="N3">
-        <v>1.037825852993048</v>
+        <v>1.024399853502952</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032206530588527</v>
+        <v>1.005453391170752</v>
       </c>
       <c r="D4">
-        <v>1.035372523355762</v>
+        <v>1.021612863707713</v>
       </c>
       <c r="E4">
-        <v>1.041904629852408</v>
+        <v>1.019554213507598</v>
       </c>
       <c r="F4">
-        <v>1.053532907492634</v>
+        <v>1.028139130475449</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033415605183089</v>
+        <v>1.043917509117112</v>
       </c>
       <c r="J4">
-        <v>1.036755635272152</v>
+        <v>1.024718619926905</v>
       </c>
       <c r="K4">
-        <v>1.037858075914158</v>
+        <v>1.031457254899523</v>
       </c>
       <c r="L4">
-        <v>1.044373753486854</v>
+        <v>1.029422228527054</v>
       </c>
       <c r="M4">
-        <v>1.055973327151597</v>
+        <v>1.037909400718057</v>
       </c>
       <c r="N4">
-        <v>1.038227947191772</v>
+        <v>1.02617383790407</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032473237321001</v>
+        <v>1.006670313486661</v>
       </c>
       <c r="D5">
-        <v>1.035568326462688</v>
+        <v>1.022490592021941</v>
       </c>
       <c r="E5">
-        <v>1.042148840755045</v>
+        <v>1.020602815341861</v>
       </c>
       <c r="F5">
-        <v>1.053816483982813</v>
+        <v>1.02934709148383</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033458830298964</v>
+        <v>1.044190224383745</v>
       </c>
       <c r="J5">
-        <v>1.036924393567986</v>
+        <v>1.025454189593787</v>
       </c>
       <c r="K5">
-        <v>1.038001582442069</v>
+        <v>1.032106955758915</v>
       </c>
       <c r="L5">
-        <v>1.044565914840021</v>
+        <v>1.030240252258053</v>
       </c>
       <c r="M5">
-        <v>1.056205400373691</v>
+        <v>1.038887715052463</v>
       </c>
       <c r="N5">
-        <v>1.038396945143743</v>
+        <v>1.026910452164249</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032518024361654</v>
+        <v>1.006873826082328</v>
       </c>
       <c r="D6">
-        <v>1.035601204151658</v>
+        <v>1.022637399602748</v>
       </c>
       <c r="E6">
-        <v>1.042189855305786</v>
+        <v>1.020778259257179</v>
       </c>
       <c r="F6">
-        <v>1.053864110430432</v>
+        <v>1.02954919443905</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033466070096783</v>
+        <v>1.044235679198537</v>
       </c>
       <c r="J6">
-        <v>1.036952726319668</v>
+        <v>1.025577166425563</v>
       </c>
       <c r="K6">
-        <v>1.038025669937721</v>
+        <v>1.03221553636455</v>
       </c>
       <c r="L6">
-        <v>1.044598181165759</v>
+        <v>1.030377052541154</v>
       </c>
       <c r="M6">
-        <v>1.056244370698122</v>
+        <v>1.039051338896681</v>
       </c>
       <c r="N6">
-        <v>1.038425318131182</v>
+        <v>1.027033603637232</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032210093947377</v>
+        <v>1.005469706609065</v>
       </c>
       <c r="D7">
-        <v>1.035375139586048</v>
+        <v>1.021624630127465</v>
       </c>
       <c r="E7">
-        <v>1.04190789230843</v>
+        <v>1.019568266817314</v>
       </c>
       <c r="F7">
-        <v>1.053536695803411</v>
+        <v>1.028155319766273</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03341618395758</v>
+        <v>1.043921175691817</v>
       </c>
       <c r="J7">
-        <v>1.036757890396314</v>
+        <v>1.024728484238385</v>
       </c>
       <c r="K7">
-        <v>1.03785999398293</v>
+        <v>1.031465970361949</v>
       </c>
       <c r="L7">
-        <v>1.04437632104919</v>
+        <v>1.029433196011483</v>
       </c>
       <c r="M7">
-        <v>1.055976427842651</v>
+        <v>1.037922516076987</v>
       </c>
       <c r="N7">
-        <v>1.038230205518469</v>
+        <v>1.026183716224003</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030923840165796</v>
+        <v>0.999479320790372</v>
       </c>
       <c r="D8">
-        <v>1.034430450214997</v>
+        <v>1.017307264614342</v>
       </c>
       <c r="E8">
-        <v>1.040730855080967</v>
+        <v>1.014418201203257</v>
       </c>
       <c r="F8">
-        <v>1.052170002134025</v>
+        <v>1.022221958655127</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033205082271905</v>
+        <v>1.042557238790087</v>
       </c>
       <c r="J8">
-        <v>1.035943150457198</v>
+        <v>1.021102637632731</v>
       </c>
       <c r="K8">
-        <v>1.037166360985875</v>
+        <v>1.028257792311178</v>
       </c>
       <c r="L8">
-        <v>1.04344921791211</v>
+        <v>1.025406347359672</v>
       </c>
       <c r="M8">
-        <v>1.054857086108311</v>
+        <v>1.033109102949718</v>
       </c>
       <c r="N8">
-        <v>1.037414308555188</v>
+        <v>1.022552720500279</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028660526737434</v>
+        <v>0.9884288315436244</v>
       </c>
       <c r="D9">
-        <v>1.032766711428142</v>
+        <v>1.009360508536101</v>
       </c>
       <c r="E9">
-        <v>1.038662573265564</v>
+        <v>1.004967395712558</v>
       </c>
       <c r="F9">
-        <v>1.04976873821572</v>
+        <v>1.011330270755479</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032823378242676</v>
+        <v>1.039959037095981</v>
       </c>
       <c r="J9">
-        <v>1.034506178877643</v>
+        <v>1.014396920306605</v>
       </c>
       <c r="K9">
-        <v>1.035939872809836</v>
+        <v>1.022303521847068</v>
       </c>
       <c r="L9">
-        <v>1.041816489780597</v>
+        <v>1.01798039123143</v>
       </c>
       <c r="M9">
-        <v>1.052887045230777</v>
+        <v>1.024242158486252</v>
       </c>
       <c r="N9">
-        <v>1.035975296311166</v>
+        <v>1.015837480286394</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027153861304967</v>
+        <v>0.9806913899812711</v>
       </c>
       <c r="D10">
-        <v>1.031658246728944</v>
+        <v>1.003812584808569</v>
       </c>
       <c r="E10">
-        <v>1.037287686446848</v>
+        <v>0.9983866998451983</v>
       </c>
       <c r="F10">
-        <v>1.048172677199668</v>
+        <v>1.003742914613545</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03256240433022</v>
+        <v>1.038087060898</v>
       </c>
       <c r="J10">
-        <v>1.033547372811148</v>
+        <v>1.009692598914398</v>
       </c>
       <c r="K10">
-        <v>1.035119429938369</v>
+        <v>1.018113341379855</v>
       </c>
       <c r="L10">
-        <v>1.040728690569381</v>
+        <v>1.012785144147606</v>
       </c>
       <c r="M10">
-        <v>1.051575340653215</v>
+        <v>1.018044916835957</v>
       </c>
       <c r="N10">
-        <v>1.035015128630081</v>
+        <v>1.011126478218216</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026501990295795</v>
+        <v>0.9772439200784829</v>
       </c>
       <c r="D11">
-        <v>1.031178449093043</v>
+        <v>1.001345595198259</v>
       </c>
       <c r="E11">
-        <v>1.036693299210094</v>
+        <v>0.9954640715544812</v>
       </c>
       <c r="F11">
-        <v>1.047482711136482</v>
+        <v>1.000372172348615</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032447862677774</v>
+        <v>1.037241145401966</v>
       </c>
       <c r="J11">
-        <v>1.033132012917752</v>
+        <v>1.007595007410431</v>
       </c>
       <c r="K11">
-        <v>1.034763519457806</v>
+        <v>1.016242180100814</v>
       </c>
       <c r="L11">
-        <v>1.040257834491298</v>
+        <v>1.010472038818185</v>
       </c>
       <c r="M11">
-        <v>1.051007761911146</v>
+        <v>1.015287073455605</v>
       </c>
       <c r="N11">
-        <v>1.034599178877993</v>
+        <v>1.009025907893716</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026259935797699</v>
+        <v>0.9759479365188228</v>
       </c>
       <c r="D12">
-        <v>1.031000258346884</v>
+        <v>1.000419031544941</v>
       </c>
       <c r="E12">
-        <v>1.036472660720264</v>
+        <v>0.9943668749789625</v>
       </c>
       <c r="F12">
-        <v>1.047226599025984</v>
+        <v>0.9991065706866514</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032405086135189</v>
+        <v>1.036921426158727</v>
       </c>
       <c r="J12">
-        <v>1.032977701845578</v>
+        <v>1.006806295047568</v>
       </c>
       <c r="K12">
-        <v>1.034631221126697</v>
+        <v>1.015538207972629</v>
       </c>
       <c r="L12">
-        <v>1.040082963623398</v>
+        <v>1.009602798416811</v>
       </c>
       <c r="M12">
-        <v>1.050796998526994</v>
+        <v>1.014250907432149</v>
       </c>
       <c r="N12">
-        <v>1.034444648666398</v>
+        <v>1.008236075468832</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026311853706698</v>
+        <v>0.9762266424195943</v>
       </c>
       <c r="D13">
-        <v>1.031038479605268</v>
+        <v>1.000618253089579</v>
       </c>
       <c r="E13">
-        <v>1.036519981920401</v>
+        <v>0.9946027627201884</v>
       </c>
       <c r="F13">
-        <v>1.04728152814494</v>
+        <v>0.9993786723952977</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032414272280329</v>
+        <v>1.036990259656754</v>
       </c>
       <c r="J13">
-        <v>1.033010803346088</v>
+        <v>1.006975917675317</v>
       </c>
       <c r="K13">
-        <v>1.034659603959118</v>
+        <v>1.015689623788934</v>
       </c>
       <c r="L13">
-        <v>1.040120472827066</v>
+        <v>1.009789716734698</v>
       </c>
       <c r="M13">
-        <v>1.050842205231139</v>
+        <v>1.014473711791317</v>
       </c>
       <c r="N13">
-        <v>1.034477797174835</v>
+        <v>1.008405938980168</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026481980372236</v>
+        <v>0.9771371137790975</v>
       </c>
       <c r="D14">
-        <v>1.03116371922339</v>
+        <v>1.001269216490261</v>
       </c>
       <c r="E14">
-        <v>1.036675058232725</v>
+        <v>0.9953736173253899</v>
       </c>
       <c r="F14">
-        <v>1.047461537315438</v>
+        <v>1.000267838316217</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032444331458596</v>
+        <v>1.037214830886739</v>
       </c>
       <c r="J14">
-        <v>1.033119258081697</v>
+        <v>1.007530010337202</v>
       </c>
       <c r="K14">
-        <v>1.034752585617281</v>
+        <v>1.016184174371097</v>
       </c>
       <c r="L14">
-        <v>1.040243379074989</v>
+        <v>1.010400395204526</v>
       </c>
       <c r="M14">
-        <v>1.050990338902333</v>
+        <v>1.015201667598448</v>
       </c>
       <c r="N14">
-        <v>1.034586405928608</v>
+        <v>1.008960818517188</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026586811565657</v>
+        <v>0.9776960128186678</v>
       </c>
       <c r="D15">
-        <v>1.03124088715947</v>
+        <v>1.001668927759777</v>
       </c>
       <c r="E15">
-        <v>1.036770624897913</v>
+        <v>0.9958470097998477</v>
       </c>
       <c r="F15">
-        <v>1.047572469725925</v>
+        <v>1.000813863448789</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032462821356839</v>
+        <v>1.037352460486538</v>
       </c>
       <c r="J15">
-        <v>1.033186076946247</v>
+        <v>1.007870121888027</v>
       </c>
       <c r="K15">
-        <v>1.03480986181279</v>
+        <v>1.016487686036795</v>
       </c>
       <c r="L15">
-        <v>1.040319109145259</v>
+        <v>1.010775306902319</v>
       </c>
       <c r="M15">
-        <v>1.051081617005636</v>
+        <v>1.015648605452359</v>
       </c>
       <c r="N15">
-        <v>1.03465331968361</v>
+        <v>1.009301413065427</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027197134944961</v>
+        <v>0.9809180700855997</v>
       </c>
       <c r="D16">
-        <v>1.031690093103679</v>
+        <v>1.003974906267923</v>
       </c>
       <c r="E16">
-        <v>1.037327154024697</v>
+        <v>0.9985790726279705</v>
       </c>
       <c r="F16">
-        <v>1.048218492046836</v>
+        <v>1.003964759735049</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032569973710321</v>
+        <v>1.038142440295726</v>
       </c>
       <c r="J16">
-        <v>1.033574934925659</v>
+        <v>1.009830493194342</v>
       </c>
       <c r="K16">
-        <v>1.035143036850413</v>
+        <v>1.018236293601625</v>
       </c>
       <c r="L16">
-        <v>1.040759943346044</v>
+        <v>1.012937276499199</v>
       </c>
       <c r="M16">
-        <v>1.051613017441807</v>
+        <v>1.018226327858517</v>
       </c>
       <c r="N16">
-        <v>1.035042729885956</v>
+        <v>1.011264568323855</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027580115626789</v>
+        <v>0.9829126020471699</v>
       </c>
       <c r="D17">
-        <v>1.031971915784173</v>
+        <v>1.005403725527901</v>
       </c>
       <c r="E17">
-        <v>1.037676504504907</v>
+        <v>1.000272821129422</v>
       </c>
       <c r="F17">
-        <v>1.048624030328982</v>
+        <v>1.00591787738543</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0326367760258</v>
+        <v>1.038628376466687</v>
       </c>
       <c r="J17">
-        <v>1.033818804752453</v>
+        <v>1.011043638965455</v>
       </c>
       <c r="K17">
-        <v>1.035351854419926</v>
+        <v>1.019317666632897</v>
       </c>
       <c r="L17">
-        <v>1.041036512564854</v>
+        <v>1.014276068493502</v>
       </c>
       <c r="M17">
-        <v>1.05194645804137</v>
+        <v>1.019822934348104</v>
       </c>
       <c r="N17">
-        <v>1.035286946035876</v>
+        <v>1.012479436901112</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027803552404108</v>
+        <v>0.9840666700580631</v>
       </c>
       <c r="D18">
-        <v>1.032136314981071</v>
+        <v>1.006230923883022</v>
       </c>
       <c r="E18">
-        <v>1.037880366114427</v>
+        <v>1.001253742306046</v>
       </c>
       <c r="F18">
-        <v>1.048860683773477</v>
+        <v>1.007048913307912</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032675592240904</v>
+        <v>1.038908419471357</v>
       </c>
       <c r="J18">
-        <v>1.033961031464316</v>
+        <v>1.011745433890821</v>
       </c>
       <c r="K18">
-        <v>1.035473591086034</v>
+        <v>1.019942963301892</v>
       </c>
       <c r="L18">
-        <v>1.04119784688346</v>
+        <v>1.015050869560784</v>
       </c>
       <c r="M18">
-        <v>1.052140986646228</v>
+        <v>1.020747072584328</v>
       </c>
       <c r="N18">
-        <v>1.035429374725984</v>
+        <v>1.013182228455769</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027879747141774</v>
+        <v>0.9844586233242831</v>
       </c>
       <c r="D19">
-        <v>1.032192373671544</v>
+        <v>1.006511938624974</v>
       </c>
       <c r="E19">
-        <v>1.037949893125257</v>
+        <v>1.001587039368178</v>
       </c>
       <c r="F19">
-        <v>1.048941395083362</v>
+        <v>1.007433200494491</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032688802375246</v>
+        <v>1.039003336818031</v>
       </c>
       <c r="J19">
-        <v>1.034009523949525</v>
+        <v>1.011983755675658</v>
       </c>
       <c r="K19">
-        <v>1.035515089417254</v>
+        <v>1.020155260831356</v>
       </c>
       <c r="L19">
-        <v>1.041252860436264</v>
+        <v>1.015314037887432</v>
       </c>
       <c r="M19">
-        <v>1.052207322351865</v>
+        <v>1.021060987189108</v>
       </c>
       <c r="N19">
-        <v>1.035477936076083</v>
+        <v>1.013420888684877</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027539020183807</v>
+        <v>0.9826995764392605</v>
       </c>
       <c r="D20">
-        <v>1.031941677131893</v>
+        <v>1.005251072295274</v>
       </c>
       <c r="E20">
-        <v>1.037639013045004</v>
+        <v>1.000091827697636</v>
       </c>
       <c r="F20">
-        <v>1.04858050854294</v>
+        <v>1.005709178042987</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032629624120849</v>
+        <v>1.038576592707537</v>
       </c>
       <c r="J20">
-        <v>1.03379264172934</v>
+        <v>1.010914084412019</v>
       </c>
       <c r="K20">
-        <v>1.035329456790615</v>
+        <v>1.01920221211008</v>
       </c>
       <c r="L20">
-        <v>1.041006837626633</v>
+        <v>1.014133062618273</v>
       </c>
       <c r="M20">
-        <v>1.051910679048439</v>
+        <v>1.019652375843813</v>
       </c>
       <c r="N20">
-        <v>1.035260745858269</v>
+        <v>1.01234969836535</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026431880112855</v>
+        <v>0.9768694360151464</v>
       </c>
       <c r="D21">
-        <v>1.031126838509876</v>
+        <v>1.001077810079568</v>
       </c>
       <c r="E21">
-        <v>1.036629388157523</v>
+        <v>0.9951469452798878</v>
       </c>
       <c r="F21">
-        <v>1.047408524345873</v>
+        <v>1.000006381522252</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032435486144058</v>
+        <v>1.0371488539943</v>
       </c>
       <c r="J21">
-        <v>1.033087321630053</v>
+        <v>1.007367112083003</v>
       </c>
       <c r="K21">
-        <v>1.034725207516705</v>
+        <v>1.016038791749234</v>
       </c>
       <c r="L21">
-        <v>1.040207185523105</v>
+        <v>1.010220847288508</v>
       </c>
       <c r="M21">
-        <v>1.050946715547816</v>
+        <v>1.014987633004964</v>
       </c>
       <c r="N21">
-        <v>1.034554424123539</v>
+        <v>1.008797688928783</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025736236971603</v>
+        <v>0.9731139977399161</v>
       </c>
       <c r="D22">
-        <v>1.030614676580337</v>
+        <v>0.9983945503760762</v>
       </c>
       <c r="E22">
-        <v>1.03599542705148</v>
+        <v>0.9919704382403154</v>
       </c>
       <c r="F22">
-        <v>1.046672646988206</v>
+        <v>0.996341963752513</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032312089503407</v>
+        <v>1.036219197701385</v>
       </c>
       <c r="J22">
-        <v>1.032643697742371</v>
+        <v>1.005081342352282</v>
       </c>
       <c r="K22">
-        <v>1.034344729290487</v>
+        <v>1.013997878768297</v>
       </c>
       <c r="L22">
-        <v>1.039704563579819</v>
+        <v>1.007702658362544</v>
       </c>
       <c r="M22">
-        <v>1.050340984650847</v>
+        <v>1.011986237037173</v>
       </c>
       <c r="N22">
-        <v>1.034110170239053</v>
+        <v>1.006508673142863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026104966802823</v>
+        <v>0.9751136391229606</v>
       </c>
       <c r="D23">
-        <v>1.030886167800603</v>
+        <v>0.9998227979525015</v>
       </c>
       <c r="E23">
-        <v>1.036331422809315</v>
+        <v>0.9936609757311957</v>
       </c>
       <c r="F23">
-        <v>1.047062654823466</v>
+        <v>0.9982922727686904</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032377630738728</v>
+        <v>1.036715127876503</v>
       </c>
       <c r="J23">
-        <v>1.032878886195466</v>
+        <v>1.006298513004233</v>
       </c>
       <c r="K23">
-        <v>1.034546481063113</v>
+        <v>1.015084873157858</v>
       </c>
       <c r="L23">
-        <v>1.039970998400937</v>
+        <v>1.009043314244469</v>
       </c>
       <c r="M23">
-        <v>1.050662060488497</v>
+        <v>1.013584038291381</v>
       </c>
       <c r="N23">
-        <v>1.034345692686727</v>
+        <v>1.007727572316752</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02755758928911</v>
+        <v>0.9827958622464875</v>
       </c>
       <c r="D24">
-        <v>1.031955340625459</v>
+        <v>1.005320068868301</v>
       </c>
       <c r="E24">
-        <v>1.037655953539635</v>
+        <v>1.000173632468514</v>
       </c>
       <c r="F24">
-        <v>1.048600173825371</v>
+        <v>1.005803505531966</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032632856217546</v>
+        <v>1.03860000203732</v>
       </c>
       <c r="J24">
-        <v>1.033804463730296</v>
+        <v>1.010972642466122</v>
       </c>
       <c r="K24">
-        <v>1.035339577510195</v>
+        <v>1.019254397851459</v>
       </c>
       <c r="L24">
-        <v>1.041020246403943</v>
+        <v>1.014197699612107</v>
       </c>
       <c r="M24">
-        <v>1.051926845916813</v>
+        <v>1.019729465896706</v>
       </c>
       <c r="N24">
-        <v>1.035272584647823</v>
+        <v>1.012408339578607</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029245260782329</v>
+        <v>0.9913480103277242</v>
       </c>
       <c r="D25">
-        <v>1.033196710704159</v>
+        <v>1.011457303754088</v>
       </c>
       <c r="E25">
-        <v>1.039196578943375</v>
+        <v>1.007457908301865</v>
       </c>
       <c r="F25">
-        <v>1.050388683996512</v>
+        <v>1.014200995033342</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032923206400249</v>
+        <v>1.040654694496349</v>
       </c>
       <c r="J25">
-        <v>1.03487781927209</v>
+        <v>1.016170098386574</v>
       </c>
       <c r="K25">
-        <v>1.036257443924391</v>
+        <v>1.023880325821815</v>
       </c>
       <c r="L25">
-        <v>1.042238471865717</v>
+        <v>1.01994154261135</v>
       </c>
       <c r="M25">
-        <v>1.053396060121534</v>
+        <v>1.026582787300389</v>
       </c>
       <c r="N25">
-        <v>1.036347464477602</v>
+        <v>1.017613176482622</v>
       </c>
     </row>
   </sheetData>
